--- a/biology/Zoologie/Eupithecia_assimilata/Eupithecia_assimilata.xlsx
+++ b/biology/Zoologie/Eupithecia_assimilata/Eupithecia_assimilata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupithecia assimilata, l’Eupithécie du groseillier ou du houblon, est une espèce de lépidoptères (papillons) de la famille des Geometridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve dans les écozones néarctique et paléarctique ainsi qu'au Proche-Orient. En France, elle est absente des régions méditerranéennes et de Corse.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a une envergure de 17 à 22 mm. Les ailes antérieures présentent une petite tache blanche près du bord inférieur.
 </t>
@@ -573,10 +589,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bivoltine, elle vole d'avril à juin puis de juillet à septembre selon les endroits.Les œufs pondus en juin donnent des chenilles au développement rapide, d'où l'apparition d'imagos en juillet-août.Les œufs pondus en août donnent des chenilles qui réaliseront leur nymphose dans le sol en octobre pour émerger en avril-mai.
-Les larves vert jaunâtre ou brunâtres se nourrissent sur les groseilliers et les houblons[1] ; elles se cachent sous les feuilles et effectuent de petites perforations allongées.
+Les larves vert jaunâtre ou brunâtres se nourrissent sur les groseilliers et les houblons ; elles se cachent sous les feuilles et effectuent de petites perforations allongées.
 </t>
         </is>
       </c>
